--- a/data/excel/tohoku.xlsx
+++ b/data/excel/tohoku.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED10B7F-0CF8-7D4E-98B9-61A4CA77D8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2550465A-F64F-AB4B-A451-E66AD0D11454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="3960" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="1620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="東北周游券" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="182">
   <si>
     <t>sortOrder</t>
   </si>
@@ -458,12 +458,171 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>/images/coverage/sendai-marugoto-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/aizu-gurutto-card.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/chiisana-tabi-holiday-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/iwate-holiday-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/aomori-holiday-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/tsugaru-free-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/akita-holiday-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/sendai-marugoto-pass-digital.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/sendai-marugoto-pass-wide.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/1day-free-pass-sakari-kamaishi.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/1day-free-pass-kamaishi-miyako.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/1day-free-pass-miyako-kuji.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/student-free-pass-sakari-kamaishi.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/student-free-pass-kamaishi-miyako.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/mocchi-parent-child-grandchild-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/weekend-holiday-free-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/subway-1day-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/iizaka-onsen-higaeri-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/abukyu-no-hi-free-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/abukyu-tokudane-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/hatsukoi-railtrip-free-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/norinori-student-weekend-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/ii-den-1day-free-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/iizaka-onsen-yuttari-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/hanamomo-free-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/aizu-nikko-free-pass-wakamatsu.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/aizu-nikko-free-pass-minamiaizu.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/colopl-1day-free-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/95th-event-2day-free-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/tsutetsu-95th-1day-free-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/daikokuten-free-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/aomori-nonai-1coin-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/aoimori-1day-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/asamushi-aquarium-1day-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/morimori-free-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/akita-nairikku-1day-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/akita-nairikku-2day-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/birthday-1day-free-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/colopl-free-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/ensen-mankitsu-toy-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/rakuraku-yuyu-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/igr-holiday-free-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/igr-go-detatoko-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/kintaichi-onsen-yumeguri-pass.png</t>
+  </si>
+  <si>
+    <t>/images/coverage/rias-line-total-free-pass.png</t>
+  </si>
+  <si>
+    <t>colopl-free-pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/images/coverage/colopl-free-pass.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/images/coverage/ii-den-colopl-1day-free-pass.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/images/coverage/aizu-gurutto-card.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/images/coverage/loople-sendai-subway-1day-pass.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/images/coverage/sendai-marugoto-pass.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -477,6 +636,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -511,12 +676,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -531,11 +702,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -877,154 +1052,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="23.83203125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="16.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1"/>
-    <col min="15" max="15" width="28" style="1" customWidth="1"/>
-    <col min="16" max="16" width="26.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="35.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="31" style="1" customWidth="1"/>
-    <col min="19" max="25" width="10.83203125" style="1"/>
-    <col min="26" max="26" width="24.6640625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="40" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="28" style="2" customWidth="1"/>
+    <col min="16" max="16" width="48.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="35.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="31" style="2" customWidth="1"/>
+    <col min="19" max="25" width="10.83203125" style="2"/>
+    <col min="26" max="26" width="24.6640625" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="20">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>3880</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>1940</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="1">
+      <c r="X2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="2">
         <v>3</v>
       </c>
       <c r="Z2" t="s">
@@ -1032,935 +1207,1431 @@
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="P4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="X4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="X5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="P6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="X6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="1">
+      <c r="P7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="X7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16" customHeight="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="P8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="X8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="P9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="X9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="P10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="X10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="P11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="X11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="P12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="X12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="P13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="X13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="P14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="P15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="P16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="P17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X17" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="P18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="P19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="P20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="P21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="P22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="P23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X23" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="P24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="X24" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="P25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="X25" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="P26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="X26" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="J27"/>
+      <c r="P27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="X27" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="X28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="P29" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="X29" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="P30" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="X30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="P31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="X31" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X32" s="1" t="s">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="P32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="X32" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="X33" s="1" t="s">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="P33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="X33" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="X34" s="1" t="s">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="P34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="X34" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="X35" s="1" t="s">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="P35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="X35" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="P36" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="X36" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X37" s="1" t="s">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="P37" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="X37" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="X38" s="1" t="s">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="P38" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="X38" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="X39" s="1" t="s">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="P39" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="X39" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="X40" s="1" t="s">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="P40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="X40" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="X41" s="1" t="s">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="P41" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="X41" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="P42" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="X42" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="X43" s="1" t="s">
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="P43" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="X43" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="X44" s="1" t="s">
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="P44" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X44" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="P45" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X45" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="X46" s="1" t="s">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="P46" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X46" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="X47" s="1" t="s">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="P47" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X47" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="X48" s="1" t="s">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="P48" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X48" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="X49" s="1" t="s">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="P49" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X49" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:24">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X50" s="1" t="s">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="P50" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X50" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:24">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="X51" s="1" t="s">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="P51" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X51" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="X52" s="1" t="s">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="P52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X52" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:24">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="X53" s="1" t="s">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="P53" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X53" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="19">
-      <c r="C54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:24" ht="19">
-      <c r="C56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:24" ht="19">
-      <c r="C58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:24">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:24">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:24">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:24">
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:24">
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
     </row>
     <row r="65" spans="3:4">
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="66" spans="3:4">
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
     </row>
     <row r="67" spans="3:4">
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="3:4">
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="3:4">
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
     </row>
     <row r="70" spans="3:4">
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
     </row>
     <row r="71" spans="3:4">
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
     </row>
     <row r="72" spans="3:4">
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
     </row>
     <row r="73" spans="3:4">
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
     </row>
     <row r="74" spans="3:4">
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
     </row>
     <row r="75" spans="3:4">
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="76" spans="3:4">
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
     </row>
     <row r="77" spans="3:4">
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="3:4">
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
     </row>
     <row r="79" spans="3:4">
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
     </row>
     <row r="80" spans="3:4">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
     </row>
     <row r="81" spans="3:4">
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
     </row>
     <row r="82" spans="3:4">
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
     </row>
     <row r="83" spans="3:4">
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
     </row>
     <row r="84" spans="3:4">
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
     </row>
     <row r="85" spans="3:4">
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="86" spans="3:4">
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
     </row>
     <row r="87" spans="3:4">
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="3:4">
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
     </row>
     <row r="89" spans="3:4">
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
     </row>
     <row r="90" spans="3:4">
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
     </row>
     <row r="91" spans="3:4">
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
     </row>
     <row r="92" spans="3:4">
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="3:4">
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
     </row>
     <row r="94" spans="3:4">
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
     </row>
     <row r="95" spans="3:4">
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="96" spans="3:4">
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
     </row>
     <row r="97" spans="3:4">
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="3:4">
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
     </row>
     <row r="99" spans="3:4">
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
     </row>
     <row r="100" spans="3:4">
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
     </row>
     <row r="101" spans="3:4">
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
     </row>
     <row r="102" spans="3:4">
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
     </row>
     <row r="103" spans="3:4">
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
     </row>
     <row r="104" spans="3:4">
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
     </row>
     <row r="105" spans="3:4">
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="106" spans="3:4">
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
     </row>
     <row r="107" spans="3:4">
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="3:4">
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
     </row>
     <row r="109" spans="3:4">
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
     </row>
     <row r="110" spans="3:4">
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
     </row>
     <row r="111" spans="3:4">
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
